--- a/biology/Médecine/Liste_de_paraphilies/Liste_de_paraphilies.xlsx
+++ b/biology/Médecine/Liste_de_paraphilies/Liste_de_paraphilies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article est une liste de paraphilies définies en tant qu'intérêt sexuel persistant et puissant autre qu'un comportement et acte copulatoire ou précopulatoire avec un partenaire humain normalement phénotypique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article est une liste de paraphilies définies en tant qu'intérêt sexuel persistant et puissant autre qu'un comportement et acte copulatoire ou précopulatoire avec un partenaire humain normalement phénotypique.
 Plusieurs termes peuvent définir une seule et même paraphilie, et certains termes peuvent se confondre avec d'autres.
 Les paraphilies du Manuel diagnostique et statistique des troubles mentaux (DSM) sans code sont listées sous le code DSM 302.9, 
 « Paraphilies non-spécifiées ».
-Dans son ouvrage de 2009 intitulé Forensic and Medico-legal Aspects of Sexual Crimes and Unusual Sexual Practices l'auteur Anil Aggrawal recense un total de 547 paraphilies, qui conduisent à une conclusion - « aucune de ces paraphilies n'ont été perçues dans le domaine clinique. C'est peut-être parce qu'elles n'existent pas, ou, au vu que certaines sont bénignes, elles n'ont jamais été remarquées par les cliniciens. Comme pour les allergies, l'excitation peut se manifester à la vue du soleil, et peuvent inclure le soleil[2]. »
+Dans son ouvrage de 2009 intitulé Forensic and Medico-legal Aspects of Sexual Crimes and Unusual Sexual Practices l'auteur Anil Aggrawal recense un total de 547 paraphilies, qui conduisent à une conclusion - « aucune de ces paraphilies n'ont été perçues dans le domaine clinique. C'est peut-être parce qu'elles n'existent pas, ou, au vu que certaines sont bénignes, elles n'ont jamais été remarquées par les cliniciens. Comme pour les allergies, l'excitation peut se manifester à la vue du soleil, et peuvent inclure le soleil. »
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Paraphilies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -546,7 +560,9 @@
           <t>Annexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Perversion</t>
         </is>
